--- a/data/CS1_3/case18_1/case18_1_2030.xlsx
+++ b/data/CS1_3/case18_1/case18_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA761540-ED6E-42F1-80A4-F67E1FFACB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC220260-F444-4D1C-9FD0-21D3353D5F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14743,12 +14743,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14814,9 +14814,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>0.25181318373025363</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>0.35206529774767092</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>1.1705510252403413</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>1.4361276723124408</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>0.69925422433971363</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>0.24789602377021008</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>0.77343550735450117</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>0.36810984247385109</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>1.1797087920778715</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>0.29444788007116418</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>0.21497338690522683</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>0.90675649829395444</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>0.47105388205909571</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>0.77868238546223401</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -16421,9 +16421,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>0.28297270407206365</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>0.37278758326481903</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>1.2451898068781322</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>1.2235163285059458</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>0.61191697966394876</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>0.2611569322072767</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -17207,7 +17207,7 @@
         <v>0.75766660739418812</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>0.37535183586344001</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>1.1797087920778715</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -17510,7 +17510,7 @@
         <v>0.27316767186615842</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>0.19886542244005045</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>0.88854812473226341</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>0.54075470617816779</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>0.64600293230337891</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -18028,9 +18028,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>3.975320037328782E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>-0.21551734159643882</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>-0.8058279938108005</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>-2.2187375370529328</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>-0.37837005399493545</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>4.9649042022837507E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>-0.57871302024039528</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>-0.32618464811753461</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>-0.68486571775494698</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>-0.19365937264127414</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>-0.10183370817257832</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>0.34466921036998044</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>5.4082703033110219E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>0.65005049176258378</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -19635,9 +19635,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>6.4804591138752948E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>-0.21042829873862107</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -20017,7 +20017,7 @@
         <v>-0.9346827392461492</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -20118,7 +20118,7 @@
         <v>-2.2314222571500082</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>-0.37228867894771622</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>6.2780288323283293E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>-0.55006336660992994</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>-0.32980960307947754</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -20623,7 +20623,7 @@
         <v>-0.68486571775494698</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>-0.17969411279078393</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>-0.10113670231723657</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -20926,7 +20926,7 @@
         <v>0.19160125347578089</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>2.3851833114527994E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>0.623436347155085</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -21242,9 +21242,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -21321,7 +21321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>0.10877730965936498</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>-0.20119940422827409</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>-0.96208581598647036</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>-2.1052192792049569</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>-0.41510036480637857</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -21927,7 +21927,7 @@
         <v>8.92423846291793E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>-0.68486571775494698</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>-0.32984548042531242</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -22230,7 +22230,7 @@
         <v>-0.68486571775494698</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>-0.19631907569374427</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -22432,7 +22432,7 @@
         <v>-0.10752059139917339</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>0.317389290584074</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>-1.7822741655347678E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -22735,7 +22735,7 @@
         <v>0.68486571775494698</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -22849,9 +22849,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -23029,7 +23029,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -23130,7 +23130,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -23231,7 +23231,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -23332,7 +23332,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -23433,7 +23433,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -23534,7 +23534,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -23938,7 +23938,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -24140,7 +24140,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -24241,7 +24241,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -24342,7 +24342,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -24456,9 +24456,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -24737,7 +24737,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -24838,7 +24838,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -25242,7 +25242,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -25444,7 +25444,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -25646,7 +25646,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -25747,7 +25747,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -25949,7 +25949,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -26063,9 +26063,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -26142,7 +26142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -26243,7 +26243,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -26445,7 +26445,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -26546,7 +26546,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -26647,7 +26647,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -26849,7 +26849,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -26950,7 +26950,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -27051,7 +27051,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -27152,7 +27152,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -27253,7 +27253,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -27354,7 +27354,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -27556,7 +27556,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -27670,9 +27670,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -27749,7 +27749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -27826,7 +27826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -27927,7 +27927,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -28028,7 +28028,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -28129,7 +28129,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -28230,7 +28230,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -28344,9 +28344,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -28423,7 +28423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -28601,7 +28601,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -28803,7 +28803,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -28904,7 +28904,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -29016,12 +29016,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -29098,7 +29098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -29188,9 +29188,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -29267,7 +29267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -29344,7 +29344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -29445,7 +29445,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -29546,7 +29546,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -29647,7 +29647,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -29748,7 +29748,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -29862,9 +29862,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -29941,7 +29941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -30018,7 +30018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -30095,7 +30095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -30172,7 +30172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -30249,7 +30249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -30326,7 +30326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -30416,9 +30416,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -30495,7 +30495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -30572,7 +30572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -30649,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -30803,7 +30803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -30880,7 +30880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -30970,9 +30970,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -31049,7 +31049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -31203,7 +31203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -31280,7 +31280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -31524,9 +31524,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -31603,7 +31603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -31680,7 +31680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -31757,7 +31757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -31834,7 +31834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -31911,7 +31911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -31988,7 +31988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -32078,9 +32078,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -32157,7 +32157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -32258,7 +32258,7 @@
         <v>0.24148918726294316</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -32359,7 +32359,7 @@
         <v>0.3964083401403608</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -32460,7 +32460,7 @@
         <v>1.0727864350519027</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -32561,7 +32561,7 @@
         <v>1.7629759433931713</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -32662,7 +32662,7 @@
         <v>0.775970825565936</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -32763,7 +32763,7 @@
         <v>0.23461636745137276</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -32864,7 +32864,7 @@
         <v>0.76035375600504551</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -32965,7 +32965,7 @@
         <v>0.32273822515684675</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -33066,7 +33066,7 @@
         <v>0.98490142676761439</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -33167,7 +33167,7 @@
         <v>0.30978690155998467</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -33268,7 +33268,7 @@
         <v>0.22790475905509566</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -33369,7 +33369,7 @@
         <v>0.95257196625363749</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -33470,7 +33470,7 @@
         <v>0.51473663003536141</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -33571,7 +33571,7 @@
         <v>0.76756453111995748</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -33685,9 +33685,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -33764,7 +33764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -33865,7 +33865,7 @@
         <v>0.25345354615302351</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -33966,7 +33966,7 @@
         <v>0.40598603202125594</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -34067,7 +34067,7 @@
         <v>1.2670429453274126</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -34168,7 +34168,7 @@
         <v>1.9712273770918658</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -34269,7 +34269,7 @@
         <v>0.76943847468970927</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -34370,7 +34370,7 @@
         <v>0.2565412294945198</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -34471,7 +34471,7 @@
         <v>0.78560852747993448</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -34572,7 +34572,7 @@
         <v>0.36800220738743411</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -34673,7 +34673,7 @@
         <v>1.0153879943935096</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -34774,7 +34774,7 @@
         <v>0.32658388669090133</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>0.23869591194937928</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -34976,7 +34976,7 @@
         <v>0.8016997182740272</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -35077,7 +35077,7 @@
         <v>0.51975798859605693</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -35178,7 +35178,7 @@
         <v>0.82562206624487511</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -35292,9 +35292,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -35371,7 +35371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -35472,7 +35472,7 @@
         <v>0.26648132995253349</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -35573,7 +35573,7 @@
         <v>0.39161558153253423</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -35674,7 +35674,7 @@
         <v>1.3441049289753324</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -35775,7 +35775,7 @@
         <v>1.5908800164741557</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -35876,7 +35876,7 @@
         <v>0.71571946375426054</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -35977,7 +35977,7 @@
         <v>0.2574580513007319</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -36078,7 +36078,7 @@
         <v>0.90578429806534122</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -36179,7 +36179,7 @@
         <v>0.45415619849165328</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -36280,7 +36280,7 @@
         <v>1.0065325795471172</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -36381,7 +36381,7 @@
         <v>0.29814144561594252</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -36482,7 +36482,7 @@
         <v>0.21290792200005998</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -36583,7 +36583,7 @@
         <v>0.72898641104867079</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -36684,7 +36684,7 @@
         <v>0.58298741652320563</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -36785,7 +36785,7 @@
         <v>0.74384047784948348</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -36899,9 +36899,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -36978,7 +36978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -37079,7 +37079,7 @@
         <v>5.7668157648919041E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -37180,7 +37180,7 @@
         <v>1.1111669339301364E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -37281,7 +37281,7 @@
         <v>-0.56886799469344218</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -37382,7 +37382,7 @@
         <v>-2.0026624778261573</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -37483,7 +37483,7 @@
         <v>-8.0422484567673175E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -37584,7 +37584,7 @@
         <v>6.3363573105490525E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -37685,7 +37685,7 @@
         <v>-0.43647712262212651</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -37786,7 +37786,7 @@
         <v>-0.3324829839163182</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -37887,7 +37887,7 @@
         <v>-7.2033127976043429E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -37988,7 +37988,7 @@
         <v>-0.12924593403855106</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -38089,7 +38089,7 @@
         <v>-8.8450186335222392E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -38190,7 +38190,7 @@
         <v>0.5483596977252948</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -38291,7 +38291,7 @@
         <v>7.0989982700628437E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -38392,7 +38392,7 @@
         <v>0.56468985640887703</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -38506,9 +38506,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -38585,7 +38585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -38686,7 +38686,7 @@
         <v>6.4273176810800012E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -38787,7 +38787,7 @@
         <v>-0.10592033243138436</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -38888,7 +38888,7 @@
         <v>-0.98415582025126547</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -38989,7 +38989,7 @@
         <v>-2.1067361196555763</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -39090,7 +39090,7 @@
         <v>-0.23631803726808076</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -39191,7 +39191,7 @@
         <v>9.0587417830264486E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -39292,7 +39292,7 @@
         <v>-0.5764184176925613</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -39393,7 +39393,7 @@
         <v>-0.34064319575214141</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -39494,7 +39494,7 @@
         <v>-3.8130960027624193E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -39595,7 +39595,7 @@
         <v>-0.16758698225550489</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -39696,7 +39696,7 @@
         <v>-9.4508175437558517E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -39797,7 +39797,7 @@
         <v>0.18587630651584799</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -39898,7 +39898,7 @@
         <v>4.6790094996765272E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -39999,7 +39999,7 @@
         <v>0.68486571775494698</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -40113,9 +40113,9 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -40123,7 +40123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>8</v>
       </c>
@@ -40132,7 +40132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>9</v>
       </c>
@@ -40141,7 +40141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>22</v>
       </c>
@@ -40150,7 +40150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>24</v>
       </c>
@@ -40159,7 +40159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>26</v>
       </c>
@@ -40181,9 +40181,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -40260,7 +40260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -40361,7 +40361,7 @@
         <v>6.327715294226606E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -40462,7 +40462,7 @@
         <v>-0.17511097831106825</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -40563,7 +40563,7 @@
         <v>-0.92545553367833933</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -40664,7 +40664,7 @@
         <v>-1.9558436318437005</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -40765,7 +40765,7 @@
         <v>-0.19829699796597935</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -40866,7 +40866,7 @@
         <v>8.8420700087094697E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -40967,7 +40967,7 @@
         <v>-0.49691944104532215</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -41068,7 +41068,7 @@
         <v>-0.32377042933376932</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -41169,7 +41169,7 @@
         <v>-0.15385613985736174</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -41270,7 +41270,7 @@
         <v>-0.16361153387490734</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -41371,7 +41371,7 @@
         <v>-8.5730233926355884E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -41472,7 +41472,7 @@
         <v>7.9372634451062352E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -41573,7 +41573,7 @@
         <v>7.788701213714419E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -41674,7 +41674,7 @@
         <v>0.57330615969709819</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -41788,9 +41788,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -41867,7 +41867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -41968,7 +41968,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -42069,7 +42069,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -42170,7 +42170,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -42271,7 +42271,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -42372,7 +42372,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -42473,7 +42473,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -42574,7 +42574,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -42675,7 +42675,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -42776,7 +42776,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -42877,7 +42877,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -42978,7 +42978,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -43079,7 +43079,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -43180,7 +43180,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -43281,7 +43281,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -43395,9 +43395,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -43474,7 +43474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -43575,7 +43575,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -43676,7 +43676,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -43777,7 +43777,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -43878,7 +43878,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -43979,7 +43979,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -44080,7 +44080,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -44181,7 +44181,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -44282,7 +44282,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -44383,7 +44383,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -44484,7 +44484,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -44585,7 +44585,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -44686,7 +44686,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -44787,7 +44787,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -44888,7 +44888,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -45002,9 +45002,9 @@
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -45081,7 +45081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -45182,7 +45182,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -45283,7 +45283,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -45384,7 +45384,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -45485,7 +45485,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -45586,7 +45586,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -45687,7 +45687,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -45788,7 +45788,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -45889,7 +45889,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -45990,7 +45990,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -46091,7 +46091,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -46192,7 +46192,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -46293,7 +46293,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -46394,7 +46394,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -46495,7 +46495,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -46609,9 +46609,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -46688,7 +46688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -46765,7 +46765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -46866,7 +46866,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -46967,7 +46967,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -47068,7 +47068,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -47169,7 +47169,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -47283,9 +47283,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -47362,7 +47362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -47439,7 +47439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -47540,7 +47540,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -47641,7 +47641,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -47742,7 +47742,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -47843,7 +47843,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -47957,9 +47957,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -48036,7 +48036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -48113,7 +48113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -48214,7 +48214,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -48315,7 +48315,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -48416,7 +48416,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -48517,7 +48517,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -48631,9 +48631,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -48710,7 +48710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -48787,7 +48787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -48864,7 +48864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -48941,7 +48941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -49018,7 +49018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -49095,7 +49095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -49185,9 +49185,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -49264,7 +49264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -49341,7 +49341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -49418,7 +49418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -49495,7 +49495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -49572,7 +49572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -49649,7 +49649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -49739,9 +49739,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -49818,7 +49818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -49895,7 +49895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -49972,7 +49972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -50049,7 +50049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -50126,7 +50126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -50203,7 +50203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -50293,9 +50293,9 @@
       <selection activeCell="A2" sqref="A2:U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -50360,7 +50360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
@@ -50426,7 +50426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9</v>
       </c>
@@ -50492,7 +50492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>22</v>
       </c>
@@ -50558,7 +50558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24</v>
       </c>
@@ -50624,7 +50624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>26</v>
       </c>
@@ -50703,9 +50703,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -50782,7 +50782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -50859,7 +50859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -50936,7 +50936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -51013,7 +51013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -51090,7 +51090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -51167,7 +51167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -51257,9 +51257,9 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -51267,7 +51267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -51276,7 +51276,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>8</v>
       </c>
@@ -51285,7 +51285,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>21</v>
       </c>
@@ -51294,7 +51294,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>23</v>
       </c>
@@ -51316,9 +51316,9 @@
       <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -51344,7 +51344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -51373,7 +51373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -51402,7 +51402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
@@ -51431,7 +51431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>23</v>
       </c>
@@ -51473,9 +51473,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -51483,7 +51483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -51492,7 +51492,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -51501,7 +51501,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -51510,7 +51510,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -51519,7 +51519,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -51528,7 +51528,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -51537,7 +51537,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -51546,7 +51546,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -51555,7 +51555,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -51564,7 +51564,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -51573,7 +51573,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -51582,7 +51582,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -51591,7 +51591,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -51600,7 +51600,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -51609,7 +51609,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -51631,12 +51631,12 @@
       <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -51713,7 +51713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -51790,7 +51790,7 @@
         <v>1.1263000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -51867,7 +51867,7 @@
         <v>-2.4493999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -51957,9 +51957,9 @@
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -52036,7 +52036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -52137,7 +52137,7 @@
         <v>0.23819712728548775</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -52238,7 +52238,7 @@
         <v>0.35960897041613871</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -52339,7 +52339,7 @@
         <v>0.96885075541745891</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -52440,7 +52440,7 @@
         <v>1.3375040912599367</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -52541,7 +52541,7 @@
         <v>0.71149211490255859</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -52642,7 +52642,7 @@
         <v>0.22935236828950872</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -52743,7 +52743,7 @@
         <v>0.71164886642180702</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -52844,7 +52844,7 @@
         <v>0.33883249316237124</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -52945,7 +52945,7 @@
         <v>1.1797087920778715</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -53046,7 +53046,7 @@
         <v>0.29250971057229641</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -53147,7 +53147,7 @@
         <v>0.21616840983079483</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -53248,7 +53248,7 @@
         <v>0.91139010636575901</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -53349,7 +53349,7 @@
         <v>0.48502648473991844</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -53450,7 +53450,7 @@
         <v>0.77907044583102047</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>

--- a/data/CS1_3/case18_1/case18_1_2030.xlsx
+++ b/data/CS1_3/case18_1/case18_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC220260-F444-4D1C-9FD0-21D3353D5F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FCFCAC-B77B-4809-BC1A-EBCFECFB5EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/data/CS1_3/case18_1/case18_1_2030.xlsx
+++ b/data/CS1_3/case18_1/case18_1_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D414A014-F2B0-4ACB-820A-48F950BA45E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC2F949-08C4-483D-816F-8137B6BBBC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14739,16 +14739,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14814,9 +14814,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>0.26075951641195544</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>0.36608663999186541</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>1.226006136083843</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>1.5050269288148708</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>0.73085112735602364</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>0.25664406014215452</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>0.80878765009166753</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>0.38294339919062081</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>1.2356274916918153</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>0.30555248635881216</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>0.22205479810372869</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>0.94885767879985217</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>0.49109872025772988</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>0.81430013812524538</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -16421,9 +16421,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>0.29349640861516979</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>0.38785793877109753</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>1.3044233171524806</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>1.281652673787123</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>0.6390926556943195</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>0.27057626850925315</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -17207,7 +17207,7 @@
         <v>0.79222048947747259</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>0.39055200016812841</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>1.2356274916918153</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -17510,7 +17510,7 @@
         <v>0.28319502146759351</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>0.20513140870218782</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>0.9297275524068247</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>0.56432797220483222</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>0.67490412342425155</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -18028,9 +18028,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>4.176560553812126E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>-0.22642736160155208</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>-0.84662099667559365</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>-2.3310555098714283</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>-0.39752408043124121</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>5.2162399127613605E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>-0.60800890233170712</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>-0.34269692044774391</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>-0.71953531151559214</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>-0.20346288828434617</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>-0.1069887819366102</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>0.36211721688504045</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>5.6820503006194067E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>0.68295765281481857</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -19635,9 +19635,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>6.808515956313009E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>-0.22108069882798001</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -20017,7 +20017,7 @@
         <v>-0.98199868750382779</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -20118,7 +20118,7 @@
         <v>-2.3443823618219932</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>-0.3911348511624903</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>6.5958381540563021E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>-0.57790893249033914</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>-0.34650537958090327</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -20623,7 +20623,7 @@
         <v>-0.71953531151559214</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>-0.18879067249603285</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>-0.1062564919237657</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -20926,7 +20926,7 @@
         <v>0.20130058204461512</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>2.5059271803732869E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>0.65499623448940936</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -21242,9 +21242,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -21321,7 +21321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>0.11428388567638134</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>-0.21138461488875865</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>-1.0107889756547201</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>-2.2117906775023815</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>-0.43611377027352471</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -21927,7 +21927,7 @@
         <v>9.3760054503891813E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>-0.71953531151559214</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>-0.34654307312657567</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -22230,7 +22230,7 @@
         <v>-0.71953531151559214</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>-0.20625723207289423</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -22432,7 +22432,7 @@
         <v>-0.11296354923466469</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>0.33345632019770477</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>-1.872497284735038E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -22735,7 +22735,7 @@
         <v>0.71953531151559214</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -22846,12 +22846,12 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -23029,7 +23029,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -23130,7 +23130,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -23231,7 +23231,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -23332,7 +23332,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -23433,7 +23433,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -23534,7 +23534,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -23938,7 +23938,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -24140,7 +24140,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -24241,7 +24241,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -24342,7 +24342,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -24456,9 +24456,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -24737,7 +24737,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -24838,7 +24838,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -25242,7 +25242,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -25444,7 +25444,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -25646,7 +25646,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -25747,7 +25747,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -25949,7 +25949,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -26063,9 +26063,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -26142,7 +26142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -26243,7 +26243,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -26445,7 +26445,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -26546,7 +26546,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -26647,7 +26647,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -26849,7 +26849,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -26950,7 +26950,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -27051,7 +27051,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -27152,7 +27152,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -27253,7 +27253,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -27354,7 +27354,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -27556,7 +27556,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -27667,12 +27667,12 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -27749,7 +27749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -27826,7 +27826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -27927,7 +27927,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -28028,7 +28028,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -28129,7 +28129,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -28230,7 +28230,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -28344,9 +28344,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -28423,7 +28423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -28601,7 +28601,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -28803,7 +28803,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -28904,7 +28904,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -29014,14 +29014,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A67856-F4F2-46B0-A9A7-252D8A1B7EA8}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Y2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -29098,7 +29100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -29188,9 +29190,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -29267,7 +29269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -29344,7 +29346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -29445,7 +29447,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -29546,7 +29548,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -29647,7 +29649,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -29748,7 +29750,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -29858,13 +29860,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BA3270-F3E7-4653-8246-FF660D159A99}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -29941,7 +29943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -30018,7 +30020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -30095,7 +30097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -30172,7 +30174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -30249,7 +30251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -30326,7 +30328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -30416,9 +30418,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -30495,7 +30497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -30572,7 +30574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -30649,7 +30651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -30726,7 +30728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -30803,7 +30805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -30880,7 +30882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -30970,9 +30972,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -31049,7 +31051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -31126,7 +31128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -31203,7 +31205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -31280,7 +31282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -31357,7 +31359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -31434,7 +31436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -31524,9 +31526,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -31603,7 +31605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -31680,7 +31682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -31757,7 +31759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -31834,7 +31836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -31911,7 +31913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -31988,7 +31990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -32078,9 +32080,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -32157,7 +32159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -32258,7 +32260,7 @@
         <v>0.24991289375059156</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -32359,7 +32361,7 @@
         <v>0.41267443668603387</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -32460,7 +32462,7 @@
         <v>1.1232924609315376</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -32561,7 +32563,7 @@
         <v>1.8484210664588812</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -32662,7 +32664,7 @@
         <v>0.81145131237138557</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -32763,7 +32765,7 @@
         <v>0.24269215482921613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -32864,7 +32866,7 @@
         <v>0.79504366818634442</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -32965,7 +32967,7 @@
         <v>0.33527495856962558</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -33066,7 +33068,7 @@
         <v>1.0309584965148624</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -33167,7 +33169,7 @@
         <v>0.32166800699179549</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -33268,7 +33270,7 @@
         <v>0.23564078824305296</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -33369,7 +33371,7 @@
         <v>0.99699243887905176</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -33470,7 +33472,7 @@
         <v>0.53699279680166045</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -33571,7 +33573,7 @@
         <v>0.80261947054302407</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -33685,9 +33687,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -33764,7 +33766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -33865,7 +33867,7 @@
         <v>0.26248291803108653</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -33966,7 +33968,7 @@
         <v>0.42273697497998025</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -34067,7 +34069,7 @@
         <v>1.3273827154316666</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -34168,7 +34170,7 @@
         <v>2.0672147019633154</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -34269,7 +34271,7 @@
         <v>0.80458827776357544</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -34370,7 +34372,7 @@
         <v>0.26572690752769607</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -34471,7 +34473,7 @@
         <v>0.82157689855449278</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -34572,7 +34574,7 @@
         <v>0.38283031535034784</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -34673,7 +34675,7 @@
         <v>1.062988369473971</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -34774,7 +34776,7 @@
         <v>0.3393152969865641</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -34875,7 +34877,7 @@
         <v>0.24697821594326524</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -34976,7 +34978,7 @@
         <v>0.83848266516030079</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -35077,7 +35079,7 @@
         <v>0.54226834893185827</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -35178,7 +35180,7 @@
         <v>0.86361602145650174</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -35292,9 +35294,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -35371,7 +35373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -35472,7 +35474,7 @@
         <v>0.27617020041582446</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -35573,7 +35575,7 @@
         <v>0.40763905680279744</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -35674,7 +35676,7 @@
         <v>1.4083457669797594</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -35775,7 +35777,7 @@
         <v>1.6676132187655235</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -35876,7 +35878,7 @@
         <v>0.74814987784708542</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -35977,7 +35979,7 @@
         <v>0.26669014111763195</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -36078,7 +36080,7 @@
         <v>0.94783626339502813</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -36179,7 +36181,7 @@
         <v>0.47334563422292564</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -36280,7 +36282,7 @@
         <v>1.0536846716615209</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -36381,7 +36383,7 @@
         <v>0.30943302931192912</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -36482,7 +36484,7 @@
         <v>0.2198847742648431</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -36583,7 +36585,7 @@
         <v>0.76208843077339816</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -36684,7 +36686,7 @@
         <v>0.60869860663208752</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -36785,7 +36787,7 @@
         <v>0.77769444711457592</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -36899,9 +36901,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -36978,7 +36980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -37079,7 +37081,7 @@
         <v>6.0587462188160482E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -37180,7 +37182,7 @@
         <v>1.1674169479122988E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -37281,7 +37283,7 @@
         <v>-0.59766549728140417</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -37382,7 +37384,7 @@
         <v>-2.1040421975959287</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -37483,7 +37485,7 @@
         <v>-8.4493669322435044E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -37584,7 +37586,7 @@
         <v>6.6571193638741311E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -37685,7 +37687,7 @@
         <v>-0.45857267235518973</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -37786,7 +37788,7 @@
         <v>-0.34931409355704107</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -37887,7 +37889,7 @@
         <v>-7.5679622784433839E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -37988,7 +37990,7 @@
         <v>-0.13578868236448643</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -38089,7 +38091,7 @@
         <v>-9.2927753176132319E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -38190,7 +38192,7 @@
         <v>0.57611901967992163</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -38291,7 +38293,7 @@
         <v>7.4583670919355513E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -38392,7 +38394,7 @@
         <v>0.5932758513198646</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -38506,9 +38508,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -38585,7 +38587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -38686,7 +38688,7 @@
         <v>6.7526843729683345E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -38787,7 +38789,7 @@
         <v>-0.11128228120643247</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -38888,7 +38890,7 @@
         <v>-1.0339762180325056</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -38989,7 +38991,7 @@
         <v>-2.2133843041621208</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -39090,7 +39092,7 @@
         <v>-0.24828103985091546</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -39191,7 +39193,7 @@
         <v>9.5173176606884763E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -39292,7 +39294,7 @@
         <v>-0.60559814133687651</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -39393,7 +39395,7 @@
         <v>-0.35788739546587334</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -39494,7 +39496,7 @@
         <v>-4.0061243380388176E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -39595,7 +39597,7 @@
         <v>-0.17607064911711551</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -39696,7 +39698,7 @@
         <v>-9.9292412645723652E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -39797,7 +39799,7 @@
         <v>0.19528582413305109</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -39898,7 +39900,7 @@
         <v>4.915872514352973E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -39999,7 +40001,7 @@
         <v>0.71953531151559214</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -40110,12 +40112,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -40123,7 +40125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>8</v>
       </c>
@@ -40132,7 +40134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>9</v>
       </c>
@@ -40141,7 +40143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>22</v>
       </c>
@@ -40150,7 +40152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>24</v>
       </c>
@@ -40159,7 +40161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>26</v>
       </c>
@@ -40181,9 +40183,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -40260,7 +40262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -40361,7 +40363,7 @@
         <v>6.6480398673458507E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -40462,7 +40464,7 @@
         <v>-0.1839755284318938</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -40563,7 +40565,7 @@
         <v>-0.97230437800558533</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -40664,7 +40666,7 @@
         <v>-2.0548532660208174</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -40765,7 +40767,7 @@
         <v>-0.2083352816546015</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -40866,7 +40868,7 @@
         <v>9.2896774261314485E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -40967,7 +40969,7 @@
         <v>-0.5220747301862112</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -41068,7 +41070,7 @@
         <v>-0.34016048794775278</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -41169,7 +41171,7 @@
         <v>-0.16164471757143029</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -41270,7 +41272,7 @@
         <v>-0.17189395372298141</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -41371,7 +41373,7 @@
         <v>-9.0070110059994296E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -41472,7 +41474,7 @@
         <v>8.3390673200543386E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -41573,7 +41575,7 @@
         <v>8.182984501667144E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -41674,7 +41676,7 @@
         <v>0.60232833315663459</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -41788,9 +41790,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -41867,7 +41869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -41968,7 +41970,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -42069,7 +42071,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -42170,7 +42172,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -42271,7 +42273,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -42372,7 +42374,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -42473,7 +42475,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -42574,7 +42576,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -42675,7 +42677,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -42776,7 +42778,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -42877,7 +42879,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -42978,7 +42980,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -43079,7 +43081,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -43180,7 +43182,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -43281,7 +43283,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -43395,9 +43397,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -43474,7 +43476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -43575,7 +43577,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -43676,7 +43678,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -43777,7 +43779,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -43878,7 +43880,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -43979,7 +43981,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -44080,7 +44082,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -44181,7 +44183,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -44282,7 +44284,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -44383,7 +44385,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -44484,7 +44486,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -44585,7 +44587,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -44686,7 +44688,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -44787,7 +44789,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -44888,7 +44890,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -45002,9 +45004,9 @@
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -45081,7 +45083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -45182,7 +45184,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -45283,7 +45285,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -45384,7 +45386,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -45485,7 +45487,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -45586,7 +45588,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -45687,7 +45689,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -45788,7 +45790,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -45889,7 +45891,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -45990,7 +45992,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -46091,7 +46093,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -46192,7 +46194,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -46293,7 +46295,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -46394,7 +46396,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -46495,7 +46497,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -46609,9 +46611,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -46688,7 +46690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -46765,7 +46767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -46866,7 +46868,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -46967,7 +46969,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -47068,7 +47070,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -47169,7 +47171,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -47283,9 +47285,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -47362,7 +47364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -47439,7 +47441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -47540,7 +47542,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -47641,7 +47643,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -47742,7 +47744,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -47843,7 +47845,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -47957,9 +47959,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -48036,7 +48038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -48113,7 +48115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -48214,7 +48216,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -48315,7 +48317,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -48416,7 +48418,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -48517,7 +48519,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -48631,9 +48633,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -48710,7 +48712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -48787,7 +48789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -48864,7 +48866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -48941,7 +48943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -49018,7 +49020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -49095,7 +49097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -49185,9 +49187,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -49264,7 +49266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -49341,7 +49343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -49418,7 +49420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -49495,7 +49497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -49572,7 +49574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -49649,7 +49651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -49739,9 +49741,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -49818,7 +49820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -49895,7 +49897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -49972,7 +49974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -50049,7 +50051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -50126,7 +50128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -50203,7 +50205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -50290,12 +50292,12 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U6"/>
+      <selection activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -50360,7 +50362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
@@ -50426,7 +50428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -50492,7 +50494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -50558,7 +50560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -50624,7 +50626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>26</v>
       </c>
@@ -50703,9 +50705,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -50782,7 +50784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
@@ -50859,7 +50861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -50936,7 +50938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -51013,7 +51015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -51090,7 +51092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -51167,7 +51169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -51254,12 +51256,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -51267,7 +51269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -51276,7 +51278,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>8</v>
       </c>
@@ -51285,7 +51287,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>21</v>
       </c>
@@ -51294,7 +51296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>23</v>
       </c>
@@ -51313,12 +51315,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H5"/>
+      <selection activeCell="E2" sqref="E2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -51344,7 +51346,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -51373,7 +51375,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -51402,7 +51404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
@@ -51431,7 +51433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -51473,9 +51475,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -51483,7 +51485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -51492,7 +51494,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -51501,7 +51503,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -51510,7 +51512,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -51519,7 +51521,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -51528,7 +51530,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -51537,7 +51539,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -51546,7 +51548,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -51555,7 +51557,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -51564,7 +51566,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -51573,7 +51575,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -51582,7 +51584,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -51591,7 +51593,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -51600,7 +51602,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -51609,7 +51611,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -51625,18 +51627,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE9875A-D5F3-4037-ABBA-BC5732E3F827}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -51713,7 +51713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -51790,7 +51790,7 @@
         <v>1.1263000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -51867,7 +51867,7 @@
         <v>-2.4493999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -51943,6 +51943,84 @@
       <c r="Y4" s="3">
         <v>2.3612000000000002</v>
       </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51954,12 +52032,12 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -52036,7 +52114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -52137,7 +52215,7 @@
         <v>0.2464541815680466</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -52238,7 +52316,7 @@
         <v>0.37401219199828051</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -52339,7 +52417,7 @@
         <v>1.0140953005472979</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -52440,7 +52518,7 @@
         <v>1.4014107785598684</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -52541,7 +52619,7 @@
         <v>0.74370853015798599</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -52642,7 +52720,7 @@
         <v>0.23716167903147017</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -52743,7 +52821,7 @@
         <v>0.74387321682620278</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -52844,7 +52922,7 @@
         <v>0.35218395816290654</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -52945,7 +53023,7 @@
         <v>1.2356274916918153</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -53046,7 +53124,7 @@
         <v>0.30351620193402096</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -53147,7 +53225,7 @@
         <v>0.22331031604063978</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -53248,7 +53326,7 @@
         <v>0.95372585155394529</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
@@ -53349,7 +53427,7 @@
         <v>0.50577865058857874</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -53450,7 +53528,7 @@
         <v>0.81470784306813104</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
